--- a/XING_MAT327_01 - Mat Siemens/XING_MAT32701_A0.xlsx
+++ b/XING_MAT327_01 - Mat Siemens/XING_MAT32701_A0.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRJ\Documents\GitHub\RepoX327\XING_MAT327_01 - Mat Siemens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5428409-4B79-405C-9DB3-6ED4D52ED594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1B78CD-26BE-4F44-800F-2E2CCA77160C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7740" yWindow="5325" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XING_SET32701_A0" sheetId="1" r:id="rId1"/>
+    <sheet name="Menores" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
   <webPublishing codePage="1250"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Nombre</t>
   </si>
@@ -69,27 +70,189 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Cant.</t>
+  </si>
+  <si>
+    <t>Precio Unitario</t>
+  </si>
+  <si>
+    <t>Precio Total</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Borne BPN2.5</t>
+  </si>
+  <si>
+    <t>Borne 4mm, tierra</t>
+  </si>
+  <si>
+    <t>BorneBPN2.5</t>
+  </si>
+  <si>
+    <t>Borne rele</t>
+  </si>
+  <si>
+    <t>Borne fusible</t>
+  </si>
+  <si>
+    <t>fusible</t>
+  </si>
+  <si>
+    <t>tomacorrientes</t>
+  </si>
+  <si>
+    <t>extremo bornera</t>
+  </si>
+  <si>
+    <t>etiquetado bornera</t>
+  </si>
+  <si>
+    <t>termica bipolar</t>
+  </si>
+  <si>
+    <t>riel din</t>
+  </si>
+  <si>
+    <t>marron1,5</t>
+  </si>
+  <si>
+    <t>celeste1,5</t>
+  </si>
+  <si>
+    <t>tierra1,5</t>
+  </si>
+  <si>
+    <t>rojo1,5</t>
+  </si>
+  <si>
+    <t>blanco1,5</t>
+  </si>
+  <si>
+    <t>negro0,75</t>
+  </si>
+  <si>
+    <t>bulonería para tablero?</t>
+  </si>
+  <si>
+    <t>utp</t>
+  </si>
+  <si>
+    <t>rj45</t>
+  </si>
+  <si>
+    <t>capuchon rj45</t>
+  </si>
+  <si>
+    <t>puente</t>
+  </si>
+  <si>
+    <t>cablecanal 15*30</t>
+  </si>
+  <si>
+    <t>1911/1912</t>
+  </si>
+  <si>
+    <t>termica unipolar 4A</t>
+  </si>
+  <si>
+    <t>termica unipolar 2A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000\ &quot;USD&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00\ &quot;USD&quot;"/>
+    <numFmt numFmtId="166" formatCode="General\ &quot;m&quot;"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,14 +260,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -525,4 +753,925 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6E74EB-C949-4400-A956-5DF2F4AE5A73}">
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>1783</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>1810</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>131</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>843</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>132</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>133</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="17">
+        <v>2371</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="17">
+        <v>2373</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>154</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>2220</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>4217</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>5184</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <v>5185</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <v>191</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>199</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
+        <v>177</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G76" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="15">
+        <f>SUM(H2:H75)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XING_MAT327_01 - Mat Siemens/XING_MAT32701_A0.xlsx
+++ b/XING_MAT327_01 - Mat Siemens/XING_MAT32701_A0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRJ\Documents\GitHub\RepoX327\XING_MAT327_01 - Mat Siemens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1B78CD-26BE-4F44-800F-2E2CCA77160C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E13A3E-C216-48AD-8865-9A5456BE5AC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7740" yWindow="5325" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XING_SET32701_A0" sheetId="1" r:id="rId1"/>
@@ -761,7 +761,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
